--- a/Documents/Agile Documents/Burndown Charts/Burndown - Sprint 4.xlsx
+++ b/Documents/Agile Documents/Burndown Charts/Burndown - Sprint 4.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Task</t>
   </si>
@@ -91,7 +91,22 @@
     <t>Implement Policeman</t>
   </si>
   <si>
-    <t>Other Tasks</t>
+    <t>Nav Mesh Area's</t>
+  </si>
+  <si>
+    <t>Upper Floor Room I</t>
+  </si>
+  <si>
+    <t>Save Game Script</t>
+  </si>
+  <si>
+    <t>Basement Room E</t>
+  </si>
+  <si>
+    <t>Basement Room D</t>
+  </si>
+  <si>
+    <t>Basement Landing</t>
   </si>
 </sst>
 </file>
@@ -362,19 +377,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.2</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.599999999999998</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.799999999999998</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -426,22 +441,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34</c:v>
+                  <c:v>37.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34</c:v>
+                  <c:v>37.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34</c:v>
+                  <c:v>37.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34</c:v>
+                  <c:v>37.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34</c:v>
+                  <c:v>37.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1508,7 +1523,7 @@
   <dimension ref="A2:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,27 +1563,27 @@
       </c>
       <c r="C3" s="2">
         <f>SUM(B7:B38)</f>
-        <v>34</v>
+        <v>47.5</v>
       </c>
       <c r="D3" s="2">
         <f>$C3-SUM(C7:C38)</f>
-        <v>34</v>
+        <v>37.75</v>
       </c>
       <c r="E3" s="2">
         <f>$C3-SUM(C7:D38)</f>
-        <v>34</v>
+        <v>37.75</v>
       </c>
       <c r="F3" s="2">
         <f>$C3-SUM(C7:E38)</f>
-        <v>34</v>
+        <v>37.75</v>
       </c>
       <c r="G3" s="2">
         <f>$C3-SUM(C7:F38)</f>
-        <v>34</v>
+        <v>37.75</v>
       </c>
       <c r="H3" s="2">
         <f>$C3-SUM(C7:G38)</f>
-        <v>34</v>
+        <v>37.75</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1579,23 +1594,23 @@
       </c>
       <c r="C4" s="9">
         <f>C3</f>
-        <v>34</v>
+        <v>47.5</v>
       </c>
       <c r="D4" s="9">
         <f>C4-$C4/5</f>
-        <v>27.2</v>
+        <v>38</v>
       </c>
       <c r="E4" s="9">
         <f>D4-$C4/5</f>
-        <v>20.399999999999999</v>
+        <v>28.5</v>
       </c>
       <c r="F4" s="9">
         <f>E4-$C4/5</f>
-        <v>13.599999999999998</v>
+        <v>19</v>
       </c>
       <c r="G4" s="9">
         <f>F4-$C4/5</f>
-        <v>6.799999999999998</v>
+        <v>9.5</v>
       </c>
       <c r="H4" s="9">
         <f>G4-$C4/5</f>
@@ -1662,7 +1677,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="8">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -1712,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -1737,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -1787,7 +1802,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -1837,7 +1852,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -1862,7 +1877,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -1884,7 +1899,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="8">
         <v>0</v>
@@ -1905,9 +1920,11 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="B18" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" s="8">
         <v>0</v>
@@ -1928,9 +1945,11 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="B19" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C19" s="8">
         <v>0</v>
@@ -1951,12 +1970,14 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+      <c r="A20" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="B20" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C20" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -1974,12 +1995,14 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+      <c r="A21" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B21" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
@@ -1997,12 +2020,14 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+      <c r="A22" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="B22" s="8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C22" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>

--- a/Documents/Agile Documents/Burndown Charts/Burndown - Sprint 4.xlsx
+++ b/Documents/Agile Documents/Burndown Charts/Burndown - Sprint 4.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2cartj31\Desktop\SWEG-MT-Project-PT2\Documents\Agile Documents\Burndown Charts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J\Desktop\SWEG-MT-Project-PT2\Documents\Agile Documents\Burndown Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88B6B79-052C-4AF2-A9BE-9E8B7C2FEC46}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10110"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -112,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -304,7 +305,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -447,16 +447,16 @@
                   <c:v>37.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.75</c:v>
+                  <c:v>25.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.75</c:v>
+                  <c:v>25.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.75</c:v>
+                  <c:v>25.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.75</c:v>
+                  <c:v>25.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -597,7 +597,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -605,6 +604,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1519,7 +1519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1571,19 +1571,19 @@
       </c>
       <c r="E3" s="2">
         <f>$C3-SUM(C7:D38)</f>
-        <v>37.75</v>
+        <v>25.75</v>
       </c>
       <c r="F3" s="2">
         <f>$C3-SUM(C7:E38)</f>
-        <v>37.75</v>
+        <v>25.75</v>
       </c>
       <c r="G3" s="2">
         <f>$C3-SUM(C7:F38)</f>
-        <v>37.75</v>
+        <v>25.75</v>
       </c>
       <c r="H3" s="2">
         <f>$C3-SUM(C7:G38)</f>
-        <v>37.75</v>
+        <v>25.75</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="8">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E7" s="8">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E9" s="8">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E12" s="8">
         <v>0</v>
@@ -1880,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" s="8">
         <v>0</v>
@@ -1955,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19" s="8">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="8">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="8">
         <v>0</v>

--- a/Documents/Agile Documents/Burndown Charts/Burndown - Sprint 4.xlsx
+++ b/Documents/Agile Documents/Burndown Charts/Burndown - Sprint 4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J\Desktop\SWEG-MT-Project-PT2\Documents\Agile Documents\Burndown Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88B6B79-052C-4AF2-A9BE-9E8B7C2FEC46}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB60A64-F6CC-4188-9B6B-9754950870BF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Task</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Basement Landing</t>
+  </si>
+  <si>
+    <t>Other Tasks</t>
   </si>
 </sst>
 </file>
@@ -377,19 +380,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>47.5</c:v>
+                  <c:v>52.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.5</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -441,22 +444,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>47.5</c:v>
+                  <c:v>52.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.75</c:v>
+                  <c:v>42.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.75</c:v>
+                  <c:v>30.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.75</c:v>
+                  <c:v>23.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.75</c:v>
+                  <c:v>23.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.75</c:v>
+                  <c:v>23.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1523,7 +1526,7 @@
   <dimension ref="A2:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,27 +1566,27 @@
       </c>
       <c r="C3" s="2">
         <f>SUM(B7:B38)</f>
-        <v>47.5</v>
+        <v>52.5</v>
       </c>
       <c r="D3" s="2">
         <f>$C3-SUM(C7:C38)</f>
-        <v>37.75</v>
+        <v>42.75</v>
       </c>
       <c r="E3" s="2">
         <f>$C3-SUM(C7:D38)</f>
-        <v>25.75</v>
+        <v>30.75</v>
       </c>
       <c r="F3" s="2">
         <f>$C3-SUM(C7:E38)</f>
-        <v>25.75</v>
+        <v>23.75</v>
       </c>
       <c r="G3" s="2">
         <f>$C3-SUM(C7:F38)</f>
-        <v>25.75</v>
+        <v>23.75</v>
       </c>
       <c r="H3" s="2">
         <f>$C3-SUM(C7:G38)</f>
-        <v>25.75</v>
+        <v>23.75</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1594,23 +1597,23 @@
       </c>
       <c r="C4" s="9">
         <f>C3</f>
-        <v>47.5</v>
+        <v>52.5</v>
       </c>
       <c r="D4" s="9">
         <f>C4-$C4/5</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E4" s="9">
         <f>D4-$C4/5</f>
-        <v>28.5</v>
+        <v>31.5</v>
       </c>
       <c r="F4" s="9">
         <f>E4-$C4/5</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="9">
         <f>F4-$C4/5</f>
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="H4" s="9">
         <f>G4-$C4/5</f>
@@ -1783,7 +1786,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="8">
         <v>0</v>
@@ -2045,9 +2048,11 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+      <c r="A23" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="B23" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C23" s="8">
         <v>0</v>
@@ -2056,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F23" s="8">
         <v>0</v>

--- a/Documents/Agile Documents/Burndown Charts/Burndown - Sprint 4.xlsx
+++ b/Documents/Agile Documents/Burndown Charts/Burndown - Sprint 4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J\Desktop\SWEG-MT-Project-PT2\Documents\Agile Documents\Burndown Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB60A64-F6CC-4188-9B6B-9754950870BF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273CEB12-C41B-4E1F-9E80-02DC0DA16747}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -456,10 +456,10 @@
                   <c:v>23.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.75</c:v>
+                  <c:v>17.649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.75</c:v>
+                  <c:v>17.649999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1526,7 +1526,7 @@
   <dimension ref="A2:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="G3" s="2">
         <f>$C3-SUM(C7:F38)</f>
-        <v>23.75</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="H3" s="2">
         <f>$C3-SUM(C7:G38)</f>
-        <v>23.75</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G9" s="8">
         <v>0</v>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="8">
         <v>0</v>
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18" s="8">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="8">
         <v>0</v>
